--- a/data/pca/factorExposure/factorExposure_2019-04-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1305588131605981</v>
+        <v>-0.08019510450146945</v>
       </c>
       <c r="C2">
-        <v>0.01600012818677841</v>
+        <v>0.03255064771307542</v>
       </c>
       <c r="D2">
-        <v>0.0498567840553775</v>
+        <v>0.005398009350746935</v>
       </c>
       <c r="E2">
-        <v>0.1083937030111547</v>
+        <v>0.04061832888626424</v>
       </c>
       <c r="F2">
-        <v>-0.09870640860319789</v>
+        <v>-0.1407231501565318</v>
       </c>
       <c r="G2">
-        <v>-0.0120622282703692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1101412210377213</v>
+      </c>
+      <c r="H2">
+        <v>0.04627668645784225</v>
+      </c>
+      <c r="I2">
+        <v>0.00371126367200403</v>
+      </c>
+      <c r="J2">
+        <v>0.08062965114221143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2235034335563149</v>
+        <v>-0.168330421825763</v>
       </c>
       <c r="C3">
-        <v>-0.08645381356400658</v>
+        <v>0.06650346608194446</v>
       </c>
       <c r="D3">
-        <v>-0.01315336928440439</v>
+        <v>-0.05872661425267148</v>
       </c>
       <c r="E3">
-        <v>0.3144487980592344</v>
+        <v>-0.0197732661344816</v>
       </c>
       <c r="F3">
-        <v>0.001330852720216629</v>
+        <v>-0.3657053263178978</v>
       </c>
       <c r="G3">
-        <v>-0.1951451006690517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.07526812056570834</v>
+      </c>
+      <c r="H3">
+        <v>0.2672048817001498</v>
+      </c>
+      <c r="I3">
+        <v>0.1085141610858646</v>
+      </c>
+      <c r="J3">
+        <v>0.3247883105315597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09849056229469874</v>
+        <v>-0.07452841603625902</v>
       </c>
       <c r="C4">
-        <v>-0.02669887691535578</v>
+        <v>0.02156955242480518</v>
       </c>
       <c r="D4">
-        <v>0.02146394856867705</v>
+        <v>-0.03561200788917183</v>
       </c>
       <c r="E4">
-        <v>0.08084041983339535</v>
+        <v>0.03080342477569248</v>
       </c>
       <c r="F4">
-        <v>-0.04155737252696901</v>
+        <v>-0.08539641865516133</v>
       </c>
       <c r="G4">
-        <v>-0.03074118274827071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04591755386437033</v>
+      </c>
+      <c r="H4">
+        <v>0.02283883235889473</v>
+      </c>
+      <c r="I4">
+        <v>0.01380853543572279</v>
+      </c>
+      <c r="J4">
+        <v>0.06791701652770479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01791227556128649</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0005748966354946544</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.007705924088333987</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.002346123811405488</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.001197860563640887</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01794280316862186</v>
+      </c>
+      <c r="H6">
+        <v>0.004660342593094865</v>
+      </c>
+      <c r="I6">
+        <v>-0.008927493926650244</v>
+      </c>
+      <c r="J6">
+        <v>0.002356980390308578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04278234598382663</v>
+        <v>-0.03548895584582677</v>
       </c>
       <c r="C7">
-        <v>-0.004328146743198136</v>
+        <v>-0.00919151411271819</v>
       </c>
       <c r="D7">
-        <v>0.03509684808983831</v>
+        <v>-0.03882217869825699</v>
       </c>
       <c r="E7">
-        <v>0.06976401555804571</v>
+        <v>0.02725422359695973</v>
       </c>
       <c r="F7">
-        <v>0.05067212450419025</v>
+        <v>-0.05765780735847301</v>
       </c>
       <c r="G7">
-        <v>0.005398314721682479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.005075526742710013</v>
+      </c>
+      <c r="H7">
+        <v>0.04738809608590048</v>
+      </c>
+      <c r="I7">
+        <v>-0.0229237479191245</v>
+      </c>
+      <c r="J7">
+        <v>0.0446367830589016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04227328972643613</v>
+        <v>-0.03194238970868375</v>
       </c>
       <c r="C8">
-        <v>-0.04048053536167022</v>
+        <v>0.02521145835694882</v>
       </c>
       <c r="D8">
-        <v>0.004656443122021067</v>
+        <v>-0.03677812661872214</v>
       </c>
       <c r="E8">
-        <v>0.07474203986199708</v>
+        <v>0.01240754125538949</v>
       </c>
       <c r="F8">
-        <v>-0.006324945739846409</v>
+        <v>-0.07708659786738517</v>
       </c>
       <c r="G8">
-        <v>-0.0310183493219835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02163311462854671</v>
+      </c>
+      <c r="H8">
+        <v>0.04727770141500834</v>
+      </c>
+      <c r="I8">
+        <v>0.01130528727239575</v>
+      </c>
+      <c r="J8">
+        <v>0.07023548404456789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08764721277408212</v>
+        <v>-0.06332393036628359</v>
       </c>
       <c r="C9">
-        <v>-0.02990035022451922</v>
+        <v>0.01925133321310259</v>
       </c>
       <c r="D9">
-        <v>0.03241496736986924</v>
+        <v>-0.03975400024730247</v>
       </c>
       <c r="E9">
-        <v>0.0671105530267276</v>
+        <v>0.03211420609464988</v>
       </c>
       <c r="F9">
-        <v>-0.02874184215007265</v>
+        <v>-0.08592421039896746</v>
       </c>
       <c r="G9">
-        <v>-0.04765693427679395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04121453876632387</v>
+      </c>
+      <c r="H9">
+        <v>0.01877272257822624</v>
+      </c>
+      <c r="I9">
+        <v>-0.003564636728694619</v>
+      </c>
+      <c r="J9">
+        <v>0.03603539926095929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.009237010805411916</v>
+        <v>-0.01590936201235222</v>
       </c>
       <c r="C10">
-        <v>0.1593947900221374</v>
+        <v>-0.1148669950454597</v>
       </c>
       <c r="D10">
-        <v>-0.01091918385514953</v>
+        <v>0.1093278922837232</v>
       </c>
       <c r="E10">
-        <v>0.06332385057121782</v>
+        <v>-0.02423672068014366</v>
       </c>
       <c r="F10">
-        <v>-0.01017229293321566</v>
+        <v>-0.06464868131676725</v>
       </c>
       <c r="G10">
-        <v>0.02066474532167164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02190291762688681</v>
+      </c>
+      <c r="H10">
+        <v>-0.001315922909199313</v>
+      </c>
+      <c r="I10">
+        <v>0.1121081877253757</v>
+      </c>
+      <c r="J10">
+        <v>0.0383873667038952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05910149459133762</v>
+        <v>-0.04976820135340786</v>
       </c>
       <c r="C11">
-        <v>-0.005421929572107366</v>
+        <v>0.02335423556569393</v>
       </c>
       <c r="D11">
-        <v>-0.006875272817742406</v>
+        <v>-0.009381660509590823</v>
       </c>
       <c r="E11">
-        <v>0.04077915495811137</v>
+        <v>0.006506366361650522</v>
       </c>
       <c r="F11">
-        <v>-0.002085698479201319</v>
+        <v>-0.04311747395091587</v>
       </c>
       <c r="G11">
-        <v>0.0323762412601823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.007736467398925876</v>
+      </c>
+      <c r="H11">
+        <v>0.003097915757234371</v>
+      </c>
+      <c r="I11">
+        <v>-0.02796561289693939</v>
+      </c>
+      <c r="J11">
+        <v>0.03274259528779526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04497455181863444</v>
+        <v>-0.04571423062196631</v>
       </c>
       <c r="C12">
-        <v>-0.01128125453213206</v>
+        <v>0.01602978522659007</v>
       </c>
       <c r="D12">
-        <v>-0.003505138203415588</v>
+        <v>-0.01779954445925653</v>
       </c>
       <c r="E12">
-        <v>0.03193226450200117</v>
+        <v>0.009077355123616954</v>
       </c>
       <c r="F12">
-        <v>0.0001718791670001269</v>
+        <v>-0.02264632085149776</v>
       </c>
       <c r="G12">
-        <v>0.004855662509637539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.000656779909401122</v>
+      </c>
+      <c r="H12">
+        <v>0.004402926300338656</v>
+      </c>
+      <c r="I12">
+        <v>-0.02250874907931214</v>
+      </c>
+      <c r="J12">
+        <v>0.01479066260107166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06358200657672598</v>
+        <v>-0.04244872106163056</v>
       </c>
       <c r="C13">
-        <v>-0.0137754680714961</v>
+        <v>0.02789094999239905</v>
       </c>
       <c r="D13">
-        <v>-0.006592284901482533</v>
+        <v>-0.002294649212330347</v>
       </c>
       <c r="E13">
-        <v>0.1098427179648156</v>
+        <v>0.006267473674652489</v>
       </c>
       <c r="F13">
-        <v>-0.0113429522565592</v>
+        <v>-0.1038965426439998</v>
       </c>
       <c r="G13">
-        <v>-0.002699125192825383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02316962036123207</v>
+      </c>
+      <c r="H13">
+        <v>0.04676318904236881</v>
+      </c>
+      <c r="I13">
+        <v>-0.008463592052948115</v>
+      </c>
+      <c r="J13">
+        <v>0.05933320335881426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03756950227188236</v>
+        <v>-0.0300922342873616</v>
       </c>
       <c r="C14">
-        <v>-0.007584817855439999</v>
+        <v>0.008938846599351995</v>
       </c>
       <c r="D14">
-        <v>0.02115899648415072</v>
+        <v>-0.01455358744667026</v>
       </c>
       <c r="E14">
-        <v>0.01864007527979155</v>
+        <v>0.02508406313932895</v>
       </c>
       <c r="F14">
-        <v>-0.00054059191418124</v>
+        <v>-0.03803827435820255</v>
       </c>
       <c r="G14">
-        <v>0.02023360317509687</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02961942014458575</v>
+      </c>
+      <c r="H14">
+        <v>0.04910178348821826</v>
+      </c>
+      <c r="I14">
+        <v>0.004357743763136118</v>
+      </c>
+      <c r="J14">
+        <v>0.02019508089578696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04903665939674389</v>
+        <v>-0.04373326448606604</v>
       </c>
       <c r="C16">
-        <v>-0.0216198550086046</v>
+        <v>0.0262063149258268</v>
       </c>
       <c r="D16">
-        <v>-0.01310513428832917</v>
+        <v>-0.01990285898165898</v>
       </c>
       <c r="E16">
-        <v>0.0381271719578382</v>
+        <v>0.002916462120433332</v>
       </c>
       <c r="F16">
-        <v>0.005775052608935068</v>
+        <v>-0.03687030703344475</v>
       </c>
       <c r="G16">
-        <v>0.01076210310864693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.004206482677845793</v>
+      </c>
+      <c r="H16">
+        <v>0.01034493590381088</v>
+      </c>
+      <c r="I16">
+        <v>-0.02381952332679678</v>
+      </c>
+      <c r="J16">
+        <v>0.02719444487927488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05251511024417037</v>
+        <v>-0.04700180074979984</v>
       </c>
       <c r="C19">
-        <v>-0.02665353957637</v>
+        <v>0.02871001246520464</v>
       </c>
       <c r="D19">
-        <v>0.003279311243555646</v>
+        <v>-0.02138844530552314</v>
       </c>
       <c r="E19">
-        <v>0.07908457839137795</v>
+        <v>0.01337917145966024</v>
       </c>
       <c r="F19">
-        <v>0.01148028142823761</v>
+        <v>-0.08984217333547193</v>
       </c>
       <c r="G19">
-        <v>-0.001202047976751267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01496232997514174</v>
+      </c>
+      <c r="H19">
+        <v>0.08375827497418127</v>
+      </c>
+      <c r="I19">
+        <v>0.01314218214826927</v>
+      </c>
+      <c r="J19">
+        <v>0.05602723888713745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03844496960144654</v>
+        <v>-0.01908053600174904</v>
       </c>
       <c r="C20">
-        <v>-0.03446857460890981</v>
+        <v>0.0218375747657598</v>
       </c>
       <c r="D20">
-        <v>0.01566086812039637</v>
+        <v>-0.02681822467869482</v>
       </c>
       <c r="E20">
-        <v>0.06147950378502948</v>
+        <v>0.01889063095108379</v>
       </c>
       <c r="F20">
-        <v>0.01614097447497015</v>
+        <v>-0.07092396678194267</v>
       </c>
       <c r="G20">
-        <v>-0.001891683834439191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0144336402672773</v>
+      </c>
+      <c r="H20">
+        <v>0.06565684819884007</v>
+      </c>
+      <c r="I20">
+        <v>-0.004377087132125191</v>
+      </c>
+      <c r="J20">
+        <v>0.07731214751447846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03893042384548168</v>
+        <v>-0.02313185569215064</v>
       </c>
       <c r="C21">
-        <v>-0.01831132852165185</v>
+        <v>0.01223421266993856</v>
       </c>
       <c r="D21">
-        <v>0.002081456612504711</v>
+        <v>-0.03004608734308257</v>
       </c>
       <c r="E21">
-        <v>0.09523705316746696</v>
+        <v>0.002658912127391805</v>
       </c>
       <c r="F21">
-        <v>-0.04293606381665677</v>
+        <v>-0.07899737569891066</v>
       </c>
       <c r="G21">
-        <v>0.01199378445201937</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0351363414582774</v>
+      </c>
+      <c r="H21">
+        <v>0.02752040480949023</v>
+      </c>
+      <c r="I21">
+        <v>-0.01417370471993331</v>
+      </c>
+      <c r="J21">
+        <v>0.02324657341210525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.05005957612460109</v>
+        <v>-0.04262785885193927</v>
       </c>
       <c r="C24">
-        <v>-0.01351001231486631</v>
+        <v>0.01752065123628975</v>
       </c>
       <c r="D24">
-        <v>-0.001270992676342917</v>
+        <v>-0.01236309933443816</v>
       </c>
       <c r="E24">
-        <v>0.04552310132817246</v>
+        <v>0.007721562933118264</v>
       </c>
       <c r="F24">
-        <v>0.003879115014440048</v>
+        <v>-0.04341654854105351</v>
       </c>
       <c r="G24">
-        <v>0.006826561420315241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.003606713291727453</v>
+      </c>
+      <c r="H24">
+        <v>0.008613785216209443</v>
+      </c>
+      <c r="I24">
+        <v>-0.02432310447496217</v>
+      </c>
+      <c r="J24">
+        <v>0.03368008679114127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05003527123357322</v>
+        <v>-0.04463724522588192</v>
       </c>
       <c r="C25">
-        <v>-0.004100306464506889</v>
+        <v>0.01810503843756463</v>
       </c>
       <c r="D25">
-        <v>-0.003377412580650037</v>
+        <v>-0.01169059880501004</v>
       </c>
       <c r="E25">
-        <v>0.04428772883020534</v>
+        <v>0.006089621865817569</v>
       </c>
       <c r="F25">
-        <v>-0.006023009749125394</v>
+        <v>-0.04748531055286515</v>
       </c>
       <c r="G25">
-        <v>0.01756396198077591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003243094595454594</v>
+      </c>
+      <c r="H25">
+        <v>0.002293732340279366</v>
+      </c>
+      <c r="I25">
+        <v>-0.02265601351524647</v>
+      </c>
+      <c r="J25">
+        <v>0.02395108218910715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.009409525853519628</v>
+        <v>-0.01431128120849444</v>
       </c>
       <c r="C26">
-        <v>-0.01852547722804182</v>
+        <v>0.01687303075692192</v>
       </c>
       <c r="D26">
-        <v>0.007501508905244413</v>
+        <v>-0.009489295357311366</v>
       </c>
       <c r="E26">
-        <v>0.0477432974686152</v>
+        <v>0.0005196573644605282</v>
       </c>
       <c r="F26">
-        <v>-0.0169409270594795</v>
+        <v>-0.05174083593570682</v>
       </c>
       <c r="G26">
-        <v>0.01179747162426227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02048516325503397</v>
+      </c>
+      <c r="H26">
+        <v>0.02815205821376583</v>
+      </c>
+      <c r="I26">
+        <v>-0.01920645305310392</v>
+      </c>
+      <c r="J26">
+        <v>0.03430783866002258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.111615288581381</v>
+        <v>-0.08124322081726514</v>
       </c>
       <c r="C27">
-        <v>-0.01715607261847166</v>
+        <v>0.01971234530120454</v>
       </c>
       <c r="D27">
-        <v>0.02609676714271543</v>
+        <v>-0.01902991769616619</v>
       </c>
       <c r="E27">
-        <v>0.1090443440980681</v>
+        <v>0.03141499278562473</v>
       </c>
       <c r="F27">
-        <v>-0.0107518322406723</v>
+        <v>-0.0795840339269108</v>
       </c>
       <c r="G27">
-        <v>-0.01136851480787244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01546658471397019</v>
+      </c>
+      <c r="H27">
+        <v>0.006287117776615101</v>
+      </c>
+      <c r="I27">
+        <v>-0.003145188657449648</v>
+      </c>
+      <c r="J27">
+        <v>0.04347729869546734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.009463098935175569</v>
+        <v>-0.02984062734103889</v>
       </c>
       <c r="C28">
-        <v>0.243376577978094</v>
+        <v>-0.17557087245943</v>
       </c>
       <c r="D28">
-        <v>-0.02073248954748359</v>
+        <v>0.1539894047055648</v>
       </c>
       <c r="E28">
-        <v>0.03665494210753373</v>
+        <v>-0.03562985038324257</v>
       </c>
       <c r="F28">
-        <v>-0.01206722707353466</v>
+        <v>-0.04736101988802986</v>
       </c>
       <c r="G28">
-        <v>-0.006373396525949098</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02835088188983964</v>
+      </c>
+      <c r="H28">
+        <v>-0.01568181281637402</v>
+      </c>
+      <c r="I28">
+        <v>0.1558980191564887</v>
+      </c>
+      <c r="J28">
+        <v>0.0524510977766302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02173010099408985</v>
+        <v>-0.0225098370894866</v>
       </c>
       <c r="C29">
-        <v>-0.0154090195317453</v>
+        <v>0.008618507912625046</v>
       </c>
       <c r="D29">
-        <v>0.02295458508508219</v>
+        <v>-0.01941766386028878</v>
       </c>
       <c r="E29">
-        <v>0.0259690943374057</v>
+        <v>0.02405947551398845</v>
       </c>
       <c r="F29">
-        <v>-0.01215744312103309</v>
+        <v>-0.0383461407001082</v>
       </c>
       <c r="G29">
-        <v>0.01795273159673615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03226992263235468</v>
+      </c>
+      <c r="H29">
+        <v>0.04575324744930645</v>
+      </c>
+      <c r="I29">
+        <v>-0.002186542452722649</v>
+      </c>
+      <c r="J29">
+        <v>0.008982400694415364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1075699065396795</v>
+        <v>-0.09594761491510467</v>
       </c>
       <c r="C30">
-        <v>-0.008744661320827548</v>
+        <v>0.05373536011571062</v>
       </c>
       <c r="D30">
-        <v>0.02432278869599896</v>
+        <v>0.006680008907264679</v>
       </c>
       <c r="E30">
-        <v>0.1140400808218085</v>
+        <v>0.02962010751341945</v>
       </c>
       <c r="F30">
-        <v>-0.001637184612887945</v>
+        <v>-0.1076500586742973</v>
       </c>
       <c r="G30">
-        <v>0.05562849992808705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.009951099590951744</v>
+      </c>
+      <c r="H30">
+        <v>0.01183393262143401</v>
+      </c>
+      <c r="I30">
+        <v>-0.02923337351727628</v>
+      </c>
+      <c r="J30">
+        <v>0.01759126091344373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05814732771624694</v>
+        <v>-0.06198183963456523</v>
       </c>
       <c r="C31">
-        <v>-0.01353108813524926</v>
+        <v>0.02298970665647115</v>
       </c>
       <c r="D31">
-        <v>0.01626205810088987</v>
+        <v>-0.003666971049879158</v>
       </c>
       <c r="E31">
-        <v>-0.0197433667893544</v>
+        <v>0.01917282176623374</v>
       </c>
       <c r="F31">
-        <v>-0.01244827387271174</v>
+        <v>-0.004656683150414032</v>
       </c>
       <c r="G31">
-        <v>0.0471028498037072</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04431489071616434</v>
+      </c>
+      <c r="H31">
+        <v>0.02946477854795204</v>
+      </c>
+      <c r="I31">
+        <v>0.003449504154854176</v>
+      </c>
+      <c r="J31">
+        <v>0.01685760646707348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.0723579296215278</v>
+        <v>-0.04862797355278112</v>
       </c>
       <c r="C32">
-        <v>-0.02546431070197343</v>
+        <v>0.02867683051256371</v>
       </c>
       <c r="D32">
-        <v>0.01660206764439514</v>
+        <v>-0.04175123685587902</v>
       </c>
       <c r="E32">
-        <v>0.1096475320064305</v>
+        <v>0.02715886986094291</v>
       </c>
       <c r="F32">
-        <v>0.01407724481010875</v>
+        <v>-0.09395062219848839</v>
       </c>
       <c r="G32">
-        <v>0.02478485783335333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01283001606748341</v>
+      </c>
+      <c r="H32">
+        <v>0.03673585926725154</v>
+      </c>
+      <c r="I32">
+        <v>0.002254264773940542</v>
+      </c>
+      <c r="J32">
+        <v>0.04407638866347514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06901717490731034</v>
+        <v>-0.05806460935626195</v>
       </c>
       <c r="C33">
-        <v>-0.03193525411585984</v>
+        <v>0.04874141208082697</v>
       </c>
       <c r="D33">
-        <v>0.01164238500457767</v>
+        <v>-0.01530283268913093</v>
       </c>
       <c r="E33">
-        <v>0.07648368240115039</v>
+        <v>0.005843749805860705</v>
       </c>
       <c r="F33">
-        <v>-0.0439967923330298</v>
+        <v>-0.08311827088924302</v>
       </c>
       <c r="G33">
-        <v>0.01243265511555532</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03538305887285457</v>
+      </c>
+      <c r="H33">
+        <v>0.03456790316335903</v>
+      </c>
+      <c r="I33">
+        <v>-0.03005984207863078</v>
+      </c>
+      <c r="J33">
+        <v>0.04114067491261462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04920296512556246</v>
+        <v>-0.04530992330058826</v>
       </c>
       <c r="C34">
-        <v>-0.01312778030046533</v>
+        <v>0.01883758471744913</v>
       </c>
       <c r="D34">
-        <v>-0.004086342812050269</v>
+        <v>-0.01948598848671138</v>
       </c>
       <c r="E34">
-        <v>0.02474936602280625</v>
+        <v>0.0137970166907244</v>
       </c>
       <c r="F34">
-        <v>0.004996275419773427</v>
+        <v>-0.03597243044852644</v>
       </c>
       <c r="G34">
-        <v>0.01248840638842248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.005183241428852</v>
+      </c>
+      <c r="H34">
+        <v>0.01328759519355559</v>
+      </c>
+      <c r="I34">
+        <v>-0.02150126669202335</v>
+      </c>
+      <c r="J34">
+        <v>0.02184905642857857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01274126967503973</v>
+        <v>-0.01528681720307371</v>
       </c>
       <c r="C36">
-        <v>0.008815848219534902</v>
+        <v>-0.001093584648543434</v>
       </c>
       <c r="D36">
-        <v>0.007169781431629651</v>
+        <v>-0.004556489256328601</v>
       </c>
       <c r="E36">
-        <v>0.02368880496523891</v>
+        <v>0.008734342099482206</v>
       </c>
       <c r="F36">
-        <v>-0.006823581734709987</v>
+        <v>-0.02936316205542694</v>
       </c>
       <c r="G36">
-        <v>0.01804448772417557</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02328672483679607</v>
+      </c>
+      <c r="H36">
+        <v>0.02714254132692993</v>
+      </c>
+      <c r="I36">
+        <v>-0.00499765708232911</v>
+      </c>
+      <c r="J36">
+        <v>0.003651821914808911</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.0556165208188326</v>
+        <v>-0.03379925778379847</v>
       </c>
       <c r="C38">
-        <v>-0.005985320095305683</v>
+        <v>0.006678395271172729</v>
       </c>
       <c r="D38">
-        <v>0.02610349833442028</v>
+        <v>-0.008347267035327451</v>
       </c>
       <c r="E38">
-        <v>0.03757025478047239</v>
+        <v>0.00953481736487069</v>
       </c>
       <c r="F38">
-        <v>-0.00699892570724957</v>
+        <v>-0.05304025690006917</v>
       </c>
       <c r="G38">
-        <v>-0.03206650732426052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02881653749007007</v>
+      </c>
+      <c r="H38">
+        <v>0.01203685750583117</v>
+      </c>
+      <c r="I38">
+        <v>-0.008647732612354797</v>
+      </c>
+      <c r="J38">
+        <v>-0.004005262137999362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07677846200131978</v>
+        <v>-0.05814237499121601</v>
       </c>
       <c r="C39">
-        <v>-0.0107316485697569</v>
+        <v>0.03366639861821531</v>
       </c>
       <c r="D39">
-        <v>0.003417475643249702</v>
+        <v>-0.01994814634363023</v>
       </c>
       <c r="E39">
-        <v>0.04526252768782694</v>
+        <v>0.01506843913207803</v>
       </c>
       <c r="F39">
-        <v>-0.01904158310139169</v>
+        <v>-0.05942151925451322</v>
       </c>
       <c r="G39">
-        <v>0.01929901528982522</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01697800151588108</v>
+      </c>
+      <c r="H39">
+        <v>-0.0002665147837975165</v>
+      </c>
+      <c r="I39">
+        <v>-0.04791231331699951</v>
+      </c>
+      <c r="J39">
+        <v>0.02572382614971586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.0731978280697969</v>
+        <v>-0.05698878091804091</v>
       </c>
       <c r="C40">
-        <v>-0.02602486556869139</v>
+        <v>0.04093606195264392</v>
       </c>
       <c r="D40">
-        <v>0.006864350600019824</v>
+        <v>-0.005613489929171185</v>
       </c>
       <c r="E40">
-        <v>0.106126404262856</v>
+        <v>0.01973626401010236</v>
       </c>
       <c r="F40">
-        <v>-0.03274019510631353</v>
+        <v>-0.1020390627023867</v>
       </c>
       <c r="G40">
-        <v>-0.04947858523580142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02926373084325842</v>
+      </c>
+      <c r="H40">
+        <v>0.05166298670005758</v>
+      </c>
+      <c r="I40">
+        <v>-0.02637755433983354</v>
+      </c>
+      <c r="J40">
+        <v>0.1075205683108836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003633812960691585</v>
+        <v>-0.002534919716388321</v>
       </c>
       <c r="C41">
-        <v>-0.01314357281269552</v>
+        <v>0.008526591657458454</v>
       </c>
       <c r="D41">
-        <v>0.01802132996055884</v>
+        <v>-0.008020480926580665</v>
       </c>
       <c r="E41">
-        <v>0.01321936834232947</v>
+        <v>0.00680307600197361</v>
       </c>
       <c r="F41">
-        <v>-0.02671829727666097</v>
+        <v>-0.01599550931184016</v>
       </c>
       <c r="G41">
-        <v>0.01647575657484656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03851630702054946</v>
+      </c>
+      <c r="H41">
+        <v>0.03223395041030491</v>
+      </c>
+      <c r="I41">
+        <v>0.01394640186426894</v>
+      </c>
+      <c r="J41">
+        <v>0.02023288403342181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1316841812684736</v>
+        <v>-0.2181322936685616</v>
       </c>
       <c r="C42">
-        <v>-0.1968211830690333</v>
+        <v>0.1843202205546914</v>
       </c>
       <c r="D42">
-        <v>-0.9324391801935035</v>
+        <v>-0.07006202174495046</v>
       </c>
       <c r="E42">
-        <v>0.0140897026228415</v>
+        <v>-0.9281989940462008</v>
       </c>
       <c r="F42">
-        <v>0.0223880781194187</v>
+        <v>0.1485300731447045</v>
       </c>
       <c r="G42">
-        <v>0.0757190408896965</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.007985973446197734</v>
+      </c>
+      <c r="H42">
+        <v>0.002611926307925308</v>
+      </c>
+      <c r="I42">
+        <v>0.03660603743692047</v>
+      </c>
+      <c r="J42">
+        <v>0.04009818578585525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007486860732082479</v>
+        <v>-0.005189718272711666</v>
       </c>
       <c r="C43">
-        <v>-0.01568404472302885</v>
+        <v>0.01227291300471828</v>
       </c>
       <c r="D43">
-        <v>0.0174906821223465</v>
+        <v>-0.007575114060261894</v>
       </c>
       <c r="E43">
-        <v>0.03285796498244019</v>
+        <v>0.007118833165757094</v>
       </c>
       <c r="F43">
-        <v>-0.0018668395141906</v>
+        <v>-0.02942376324596887</v>
       </c>
       <c r="G43">
-        <v>0.01637687523362511</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02181484442345254</v>
+      </c>
+      <c r="H43">
+        <v>0.03162177573642404</v>
+      </c>
+      <c r="I43">
+        <v>0.004065899631702908</v>
+      </c>
+      <c r="J43">
+        <v>0.0269568463036143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.03921748031593474</v>
+        <v>-0.03027764656618732</v>
       </c>
       <c r="C44">
-        <v>-0.03666469735254974</v>
+        <v>0.0266388487016755</v>
       </c>
       <c r="D44">
-        <v>0.0129773027467748</v>
+        <v>-0.02424763200262898</v>
       </c>
       <c r="E44">
-        <v>0.1213415518628441</v>
+        <v>0.005655499861663819</v>
       </c>
       <c r="F44">
-        <v>-0.07983374585289706</v>
+        <v>-0.1220337277397136</v>
       </c>
       <c r="G44">
-        <v>0.006162692818335072</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06378397874638933</v>
+      </c>
+      <c r="H44">
+        <v>0.09737777585158779</v>
+      </c>
+      <c r="I44">
+        <v>0.01468009647460458</v>
+      </c>
+      <c r="J44">
+        <v>0.04210790217213487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02411877638257198</v>
+        <v>-0.02416375168252603</v>
       </c>
       <c r="C46">
-        <v>-0.0128216562469369</v>
+        <v>0.02154961761151586</v>
       </c>
       <c r="D46">
-        <v>0.02368268389824104</v>
+        <v>-0.01442476659558273</v>
       </c>
       <c r="E46">
-        <v>0.02499619029138382</v>
+        <v>0.02094262084662833</v>
       </c>
       <c r="F46">
-        <v>-0.02133882615744787</v>
+        <v>-0.04742751635158365</v>
       </c>
       <c r="G46">
-        <v>0.02162339684506039</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03041698063757048</v>
+      </c>
+      <c r="H46">
+        <v>0.0515657340379592</v>
+      </c>
+      <c r="I46">
+        <v>0.00148557112912867</v>
+      </c>
+      <c r="J46">
+        <v>0.02797999068743348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08464794279998467</v>
+        <v>-0.09124640798974233</v>
       </c>
       <c r="C47">
-        <v>-0.007209966809230063</v>
+        <v>0.01892159653458507</v>
       </c>
       <c r="D47">
-        <v>0.0174953053937981</v>
+        <v>-0.005960967417827853</v>
       </c>
       <c r="E47">
-        <v>-0.0220156611004684</v>
+        <v>0.02465572127722657</v>
       </c>
       <c r="F47">
-        <v>-0.01212596751723099</v>
+        <v>0.00483290438091811</v>
       </c>
       <c r="G47">
-        <v>0.0290053534420492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04428007890201341</v>
+      </c>
+      <c r="H47">
+        <v>0.05160864523651495</v>
+      </c>
+      <c r="I47">
+        <v>0.005190548007900414</v>
+      </c>
+      <c r="J47">
+        <v>0.02552030372891965</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01521960582411081</v>
+        <v>-0.01765813199973184</v>
       </c>
       <c r="C48">
-        <v>-0.01748476294574856</v>
+        <v>0.01414400121307528</v>
       </c>
       <c r="D48">
-        <v>0.01708338686548347</v>
+        <v>-0.01412089428386388</v>
       </c>
       <c r="E48">
-        <v>0.03381293022161429</v>
+        <v>0.01138697160549248</v>
       </c>
       <c r="F48">
-        <v>-0.01182923551797121</v>
+        <v>-0.03374432131690775</v>
       </c>
       <c r="G48">
-        <v>0.004894567313883263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0157278782961984</v>
+      </c>
+      <c r="H48">
+        <v>0.02245116539385785</v>
+      </c>
+      <c r="I48">
+        <v>0.005845858341572833</v>
+      </c>
+      <c r="J48">
+        <v>0.01765194870173905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08387827661345219</v>
+        <v>-0.08727095107869093</v>
       </c>
       <c r="C50">
-        <v>-0.02459160631549055</v>
+        <v>0.02046800812647111</v>
       </c>
       <c r="D50">
-        <v>0.02711756359586595</v>
+        <v>-0.02816464165549513</v>
       </c>
       <c r="E50">
-        <v>-0.01794053970695166</v>
+        <v>0.02110309805971709</v>
       </c>
       <c r="F50">
-        <v>-0.007055372070002031</v>
+        <v>-0.002760463785135916</v>
       </c>
       <c r="G50">
-        <v>0.04066197674190818</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01001143379029439</v>
+      </c>
+      <c r="H50">
+        <v>0.04223471556933132</v>
+      </c>
+      <c r="I50">
+        <v>-0.0158609399758495</v>
+      </c>
+      <c r="J50">
+        <v>-0.004965933715271571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06968421624179673</v>
+        <v>-0.04749214060698355</v>
       </c>
       <c r="C51">
-        <v>0.02302805332986181</v>
+        <v>0.00624669506071571</v>
       </c>
       <c r="D51">
-        <v>-0.000679138738665536</v>
+        <v>0.01385898064670892</v>
       </c>
       <c r="E51">
-        <v>0.08212687796631644</v>
+        <v>0.008495282415826522</v>
       </c>
       <c r="F51">
-        <v>-0.04919354009817102</v>
+        <v>-0.09519385502020235</v>
       </c>
       <c r="G51">
-        <v>0.08065356715542821</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05823421043342469</v>
+      </c>
+      <c r="H51">
+        <v>0.04812341334710637</v>
+      </c>
+      <c r="I51">
+        <v>0.0071850618692601</v>
+      </c>
+      <c r="J51">
+        <v>0.05075562879947457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1474421715191733</v>
+        <v>-0.1288446880487258</v>
       </c>
       <c r="C53">
-        <v>-0.006820281453505154</v>
+        <v>0.03129530325017232</v>
       </c>
       <c r="D53">
-        <v>0.03917851077614885</v>
+        <v>-0.01286648093239905</v>
       </c>
       <c r="E53">
-        <v>-0.04478443739426503</v>
+        <v>0.04713783373069161</v>
       </c>
       <c r="F53">
-        <v>0.004104842834921567</v>
+        <v>0.03649705114096229</v>
       </c>
       <c r="G53">
-        <v>0.03785026998292366</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02706151915231999</v>
+      </c>
+      <c r="H53">
+        <v>-0.005958591033054448</v>
+      </c>
+      <c r="I53">
+        <v>0.02428881885155182</v>
+      </c>
+      <c r="J53">
+        <v>0.03961990279321528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02749719760412201</v>
+        <v>-0.02372878368532385</v>
       </c>
       <c r="C54">
-        <v>0.005129263895393318</v>
+        <v>0.002810426834476481</v>
       </c>
       <c r="D54">
-        <v>0.02830168616581194</v>
+        <v>-0.008699246364242842</v>
       </c>
       <c r="E54">
-        <v>0.03278286837387422</v>
+        <v>0.02637456549445799</v>
       </c>
       <c r="F54">
-        <v>-0.04739957729287588</v>
+        <v>-0.0428165324197131</v>
       </c>
       <c r="G54">
-        <v>0.004097901967169445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05175950074594668</v>
+      </c>
+      <c r="H54">
+        <v>0.04148379221688284</v>
+      </c>
+      <c r="I54">
+        <v>0.02884250458382025</v>
+      </c>
+      <c r="J54">
+        <v>0.002142032061891592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09973972189706026</v>
+        <v>-0.1024522079319817</v>
       </c>
       <c r="C55">
-        <v>0.007042408729307293</v>
+        <v>0.008207052861428761</v>
       </c>
       <c r="D55">
-        <v>0.03524985587975354</v>
+        <v>-0.02038632425885876</v>
       </c>
       <c r="E55">
-        <v>-0.01137642209491237</v>
+        <v>0.03211968547655414</v>
       </c>
       <c r="F55">
-        <v>0.03187311391895413</v>
+        <v>0.02356371360671538</v>
       </c>
       <c r="G55">
-        <v>-0.004259394085743088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.003964408780740196</v>
+      </c>
+      <c r="H55">
+        <v>0.01729011419882235</v>
+      </c>
+      <c r="I55">
+        <v>0.003954760538768853</v>
+      </c>
+      <c r="J55">
+        <v>0.03492648193885425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.179618565818663</v>
+        <v>-0.1690037181272913</v>
       </c>
       <c r="C56">
-        <v>0.01719349804099018</v>
+        <v>0.01160619486003468</v>
       </c>
       <c r="D56">
-        <v>0.0734167708731977</v>
+        <v>-0.008339221400430367</v>
       </c>
       <c r="E56">
-        <v>-0.08633425933610224</v>
+        <v>0.08432420003030566</v>
       </c>
       <c r="F56">
-        <v>0.06230758849045979</v>
+        <v>0.07779382822672956</v>
       </c>
       <c r="G56">
-        <v>-0.0002579077803984491</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02358221938216868</v>
+      </c>
+      <c r="H56">
+        <v>-0.04145052379590641</v>
+      </c>
+      <c r="I56">
+        <v>0.00886142861125864</v>
+      </c>
+      <c r="J56">
+        <v>0.04958146126328368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09378769687872437</v>
+        <v>-0.07191699486111992</v>
       </c>
       <c r="C57">
-        <v>-0.01981554299160525</v>
+        <v>0.03302534016779457</v>
       </c>
       <c r="D57">
-        <v>0.02477354731187445</v>
+        <v>-0.004761902488082549</v>
       </c>
       <c r="E57">
-        <v>0.05640026496114483</v>
+        <v>0.01335067922517953</v>
       </c>
       <c r="F57">
-        <v>-0.03003204891206995</v>
+        <v>-0.06816587812351386</v>
       </c>
       <c r="G57">
-        <v>0.001052961979352471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02671048431147572</v>
+      </c>
+      <c r="H57">
+        <v>0.02175702404179681</v>
+      </c>
+      <c r="I57">
+        <v>-0.02259047970002566</v>
+      </c>
+      <c r="J57">
+        <v>0.03249445905248208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.173999238849109</v>
+        <v>-0.2015801487949082</v>
       </c>
       <c r="C58">
-        <v>0.003920159734520033</v>
+        <v>0.09733215809023425</v>
       </c>
       <c r="D58">
-        <v>-0.0333732946940492</v>
+        <v>0.03667898696903589</v>
       </c>
       <c r="E58">
-        <v>0.1387288748329467</v>
+        <v>-0.01298505226134626</v>
       </c>
       <c r="F58">
-        <v>0.04965399611449689</v>
+        <v>-0.2323470458411115</v>
       </c>
       <c r="G58">
-        <v>-0.03092619803006231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1332458915781613</v>
+      </c>
+      <c r="H58">
+        <v>0.4028770202902113</v>
+      </c>
+      <c r="I58">
+        <v>0.137052783638199</v>
+      </c>
+      <c r="J58">
+        <v>-0.7427938519271706</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.002720576358914218</v>
+        <v>-0.03276872060393282</v>
       </c>
       <c r="C59">
-        <v>0.2020479938032184</v>
+        <v>-0.1384104712279268</v>
       </c>
       <c r="D59">
-        <v>0.01071361944394347</v>
+        <v>0.1451733592286485</v>
       </c>
       <c r="E59">
-        <v>0.05230884302610266</v>
+        <v>-0.001470642672087668</v>
       </c>
       <c r="F59">
-        <v>-0.005881129846081849</v>
+        <v>-0.06323189693755697</v>
       </c>
       <c r="G59">
-        <v>0.009833489664585412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002050753278661013</v>
+      </c>
+      <c r="H59">
+        <v>-0.01571223570231867</v>
+      </c>
+      <c r="I59">
+        <v>0.06473482345837973</v>
+      </c>
+      <c r="J59">
+        <v>0.01238946091433582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1843779063838245</v>
+        <v>-0.1790181018306508</v>
       </c>
       <c r="C60">
-        <v>0.1130057153560585</v>
+        <v>-0.01009559653351785</v>
       </c>
       <c r="D60">
-        <v>0.03388600286297572</v>
+        <v>0.07533217397368105</v>
       </c>
       <c r="E60">
-        <v>0.1777126233058786</v>
+        <v>0.01055593548387932</v>
       </c>
       <c r="F60">
-        <v>-0.03077736463442709</v>
+        <v>-0.2002846893389146</v>
       </c>
       <c r="G60">
-        <v>0.05547479588390889</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1038432873795709</v>
+      </c>
+      <c r="H60">
+        <v>-0.2529039616737933</v>
+      </c>
+      <c r="I60">
+        <v>-0.08588794438603981</v>
+      </c>
+      <c r="J60">
+        <v>-0.02666938027951129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04472089241790366</v>
+        <v>-0.03647799560898923</v>
       </c>
       <c r="C61">
-        <v>-1.610818514586449e-05</v>
+        <v>0.01590397668544213</v>
       </c>
       <c r="D61">
-        <v>-0.005571267672626372</v>
+        <v>-0.01399218133417208</v>
       </c>
       <c r="E61">
-        <v>0.0524080169952149</v>
+        <v>0.002165001934472149</v>
       </c>
       <c r="F61">
-        <v>-0.01303054673230944</v>
+        <v>-0.04729213213532069</v>
       </c>
       <c r="G61">
-        <v>0.008287539564852044</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.009324111481152924</v>
+      </c>
+      <c r="H61">
+        <v>-0.003346522217374141</v>
+      </c>
+      <c r="I61">
+        <v>-0.04607336102231132</v>
+      </c>
+      <c r="J61">
+        <v>0.006461849658461132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04614180748196642</v>
+        <v>-0.03163752982658931</v>
       </c>
       <c r="C63">
-        <v>0.005975177095931647</v>
+        <v>0.01359698438297913</v>
       </c>
       <c r="D63">
-        <v>0.01629116946129963</v>
+        <v>-0.008400322364629707</v>
       </c>
       <c r="E63">
-        <v>0.03870927810961683</v>
+        <v>0.01426624919759533</v>
       </c>
       <c r="F63">
-        <v>-0.004973213892562819</v>
+        <v>-0.0313052063982017</v>
       </c>
       <c r="G63">
-        <v>0.0098195038683554</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01770055401080066</v>
+      </c>
+      <c r="H63">
+        <v>0.03760414540814627</v>
+      </c>
+      <c r="I63">
+        <v>0.01197483643324873</v>
+      </c>
+      <c r="J63">
+        <v>0.04705878710934776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.0801011414740081</v>
+        <v>-0.05632103461961298</v>
       </c>
       <c r="C64">
-        <v>-0.03801348218055193</v>
+        <v>0.02625449259140023</v>
       </c>
       <c r="D64">
-        <v>0.06637721534425495</v>
+        <v>-0.04069666133066925</v>
       </c>
       <c r="E64">
-        <v>0.06708700606308605</v>
+        <v>0.04082696591562523</v>
       </c>
       <c r="F64">
-        <v>-0.05962907770296293</v>
+        <v>-0.06404467487255391</v>
       </c>
       <c r="G64">
-        <v>-0.01970869352028496</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05675606655408501</v>
+      </c>
+      <c r="H64">
+        <v>-0.007556925162029672</v>
+      </c>
+      <c r="I64">
+        <v>-0.008244558830685301</v>
+      </c>
+      <c r="J64">
+        <v>0.08647994364903611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01961211547333741</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.0002007726335655612</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.00820992310139514</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.002451415910465439</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001578796371394925</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0197713888967174</v>
+      </c>
+      <c r="H65">
+        <v>0.0008376520586507684</v>
+      </c>
+      <c r="I65">
+        <v>-0.01060931256237197</v>
+      </c>
+      <c r="J65">
+        <v>0.002654214403443367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09580530845105303</v>
+        <v>-0.07102653461140467</v>
       </c>
       <c r="C66">
-        <v>-0.02075521705932996</v>
+        <v>0.04739453008844553</v>
       </c>
       <c r="D66">
-        <v>0.04292767776430797</v>
+        <v>-0.02109516778660549</v>
       </c>
       <c r="E66">
-        <v>0.08218155172065303</v>
+        <v>0.04374646177999704</v>
       </c>
       <c r="F66">
-        <v>-0.0390368358013178</v>
+        <v>-0.0760650015357334</v>
       </c>
       <c r="G66">
-        <v>0.02901466298360237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01570803691130917</v>
+      </c>
+      <c r="H66">
+        <v>-0.007455067351303561</v>
+      </c>
+      <c r="I66">
+        <v>-0.06719151478565435</v>
+      </c>
+      <c r="J66">
+        <v>0.04589340428609344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06290184356163671</v>
+        <v>-0.04505620384962408</v>
       </c>
       <c r="C67">
-        <v>0.01775859990072997</v>
+        <v>-0.003872501590935464</v>
       </c>
       <c r="D67">
-        <v>0.01244193983334909</v>
+        <v>0.005976213148479831</v>
       </c>
       <c r="E67">
-        <v>0.0309577520448103</v>
+        <v>0.006980457245486659</v>
       </c>
       <c r="F67">
-        <v>-0.008150756222678019</v>
+        <v>-0.0412769781318354</v>
       </c>
       <c r="G67">
-        <v>-0.03699122006675373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03278667404025149</v>
+      </c>
+      <c r="H67">
+        <v>-0.01194345212484345</v>
+      </c>
+      <c r="I67">
+        <v>-0.03935223932338569</v>
+      </c>
+      <c r="J67">
+        <v>-0.003684828129942511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.001302259300691003</v>
+        <v>-0.03966081696986663</v>
       </c>
       <c r="C68">
-        <v>0.2468878011282785</v>
+        <v>-0.1683792905102622</v>
       </c>
       <c r="D68">
-        <v>-0.007135607939099542</v>
+        <v>0.1665908128134869</v>
       </c>
       <c r="E68">
-        <v>0.03873044874689976</v>
+        <v>-0.01318466606747419</v>
       </c>
       <c r="F68">
-        <v>-0.000861723650335836</v>
+        <v>-0.04699912895865348</v>
       </c>
       <c r="G68">
-        <v>0.02067227540585741</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.005473397554791154</v>
+      </c>
+      <c r="H68">
+        <v>-0.01016253756116376</v>
+      </c>
+      <c r="I68">
+        <v>0.1685437588116427</v>
+      </c>
+      <c r="J68">
+        <v>0.005216767578932909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.069691434699284</v>
+        <v>-0.07144519373187447</v>
       </c>
       <c r="C69">
-        <v>-0.009451423710563229</v>
+        <v>0.01870776910509196</v>
       </c>
       <c r="D69">
-        <v>0.02217726773058216</v>
+        <v>-0.006939159264028318</v>
       </c>
       <c r="E69">
-        <v>-0.01026292292497169</v>
+        <v>0.02970238991436758</v>
       </c>
       <c r="F69">
-        <v>-0.004245750384577221</v>
+        <v>-0.004913030221622709</v>
       </c>
       <c r="G69">
-        <v>0.02210314274275669</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.03132372544862304</v>
+      </c>
+      <c r="H69">
+        <v>0.02846474443866178</v>
+      </c>
+      <c r="I69">
+        <v>-0.01708295261142646</v>
+      </c>
+      <c r="J69">
+        <v>0.02571580161703442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.003885981681744469</v>
+        <v>-0.04366117368702344</v>
       </c>
       <c r="C71">
-        <v>0.2731688166972918</v>
+        <v>-0.1783269051380422</v>
       </c>
       <c r="D71">
-        <v>-0.004837416217759394</v>
+        <v>0.185475368758615</v>
       </c>
       <c r="E71">
-        <v>0.07632264184777891</v>
+        <v>-0.035302991563537</v>
       </c>
       <c r="F71">
-        <v>-0.007671126520538272</v>
+        <v>-0.0701717272593024</v>
       </c>
       <c r="G71">
-        <v>0.05756367072091578</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01121462029497734</v>
+      </c>
+      <c r="H71">
+        <v>-0.03271492649715841</v>
+      </c>
+      <c r="I71">
+        <v>0.1314696365338152</v>
+      </c>
+      <c r="J71">
+        <v>0.0266696955950636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1161827078496215</v>
+        <v>-0.1203617299938278</v>
       </c>
       <c r="C72">
-        <v>0.01358252767556094</v>
+        <v>0.01386087410771937</v>
       </c>
       <c r="D72">
-        <v>0.05488408679096556</v>
+        <v>-0.001441478919333402</v>
       </c>
       <c r="E72">
-        <v>0.09067839685523861</v>
+        <v>0.05427981735647303</v>
       </c>
       <c r="F72">
-        <v>0.0173476501573812</v>
+        <v>-0.08584100440655436</v>
       </c>
       <c r="G72">
-        <v>-0.01499774686213117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05467826261844377</v>
+      </c>
+      <c r="H72">
+        <v>0.02033359310011689</v>
+      </c>
+      <c r="I72">
+        <v>-0.03515618821826863</v>
+      </c>
+      <c r="J72">
+        <v>-0.08866627529423161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2678153432848148</v>
+        <v>-0.2590302335933122</v>
       </c>
       <c r="C73">
-        <v>0.1865434724981115</v>
+        <v>-0.02157758066979631</v>
       </c>
       <c r="D73">
-        <v>-0.007835938899939795</v>
+        <v>0.1431415460038362</v>
       </c>
       <c r="E73">
-        <v>0.3292151939687059</v>
+        <v>-0.0365061112989785</v>
       </c>
       <c r="F73">
-        <v>-0.02225590941291453</v>
+        <v>-0.3122995547065819</v>
       </c>
       <c r="G73">
-        <v>0.08884689039831763</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2114682331031609</v>
+      </c>
+      <c r="H73">
+        <v>-0.4537067767842615</v>
+      </c>
+      <c r="I73">
+        <v>-0.2859227089386525</v>
+      </c>
+      <c r="J73">
+        <v>-0.1074651329449363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1607368544084146</v>
+        <v>-0.1528422387958737</v>
       </c>
       <c r="C74">
-        <v>0.008510645432089257</v>
+        <v>0.02462360423620072</v>
       </c>
       <c r="D74">
-        <v>0.04322657565529169</v>
+        <v>-0.0008237603172671326</v>
       </c>
       <c r="E74">
-        <v>-0.01704576045961346</v>
+        <v>0.04692400985527632</v>
       </c>
       <c r="F74">
-        <v>0.04948386209728205</v>
+        <v>0.04761232676830934</v>
       </c>
       <c r="G74">
-        <v>0.06858663657112483</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.0150134605436954</v>
+      </c>
+      <c r="H74">
+        <v>-0.02994550389278973</v>
+      </c>
+      <c r="I74">
+        <v>-0.0131326997177052</v>
+      </c>
+      <c r="J74">
+        <v>0.08158220288905267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2379274126878007</v>
+        <v>-0.2470294981487418</v>
       </c>
       <c r="C75">
-        <v>0.01487569155175367</v>
+        <v>0.02944077379570392</v>
       </c>
       <c r="D75">
-        <v>0.05155984068706581</v>
+        <v>0.01477657603265511</v>
       </c>
       <c r="E75">
-        <v>-0.1382711231263574</v>
+        <v>0.1021170014592985</v>
       </c>
       <c r="F75">
-        <v>0.0416546857819798</v>
+        <v>0.1416087750337459</v>
       </c>
       <c r="G75">
-        <v>0.02133838690675832</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.008523464362548465</v>
+      </c>
+      <c r="H75">
+        <v>-0.01576652618692912</v>
+      </c>
+      <c r="I75">
+        <v>0.08377626140835581</v>
+      </c>
+      <c r="J75">
+        <v>0.06417426655383991</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2469436634768625</v>
+        <v>-0.2696528990823974</v>
       </c>
       <c r="C76">
-        <v>0.01729819923135104</v>
+        <v>0.006995013309439584</v>
       </c>
       <c r="D76">
-        <v>0.09610298322592227</v>
+        <v>-0.01596844483391286</v>
       </c>
       <c r="E76">
-        <v>-0.1286622658250959</v>
+        <v>0.1285300256605654</v>
       </c>
       <c r="F76">
-        <v>0.06103897537331363</v>
+        <v>0.1688511560046028</v>
       </c>
       <c r="G76">
-        <v>0.04145056738505739</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04478203796429133</v>
+      </c>
+      <c r="H76">
+        <v>-0.04546592695445145</v>
+      </c>
+      <c r="I76">
+        <v>-0.004779076394433373</v>
+      </c>
+      <c r="J76">
+        <v>0.07125723759453707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1304857272977819</v>
+        <v>-0.1316875305170115</v>
       </c>
       <c r="C77">
-        <v>-0.01456136103686216</v>
+        <v>0.05128213858682047</v>
       </c>
       <c r="D77">
-        <v>-0.03915992102313925</v>
+        <v>-0.02963712162809494</v>
       </c>
       <c r="E77">
-        <v>0.1577841703434869</v>
+        <v>-0.03909986114863116</v>
       </c>
       <c r="F77">
-        <v>-0.00127831093806471</v>
+        <v>-0.1690849717163365</v>
       </c>
       <c r="G77">
-        <v>-0.1069376419281801</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01286456510803714</v>
+      </c>
+      <c r="H77">
+        <v>0.2015571343954537</v>
+      </c>
+      <c r="I77">
+        <v>0.1341708693741182</v>
+      </c>
+      <c r="J77">
+        <v>0.1484949988030622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08636615066003228</v>
+        <v>-0.08420944701697794</v>
       </c>
       <c r="C78">
-        <v>-0.03467207396491755</v>
+        <v>0.04637830677968156</v>
       </c>
       <c r="D78">
-        <v>-0.01410292713249336</v>
+        <v>-0.04274378867492533</v>
       </c>
       <c r="E78">
-        <v>0.06457018050038948</v>
+        <v>0.0001069202243311816</v>
       </c>
       <c r="F78">
-        <v>-0.0163005088852861</v>
+        <v>-0.08466871669133486</v>
       </c>
       <c r="G78">
-        <v>0.007402173524578232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01557585597722318</v>
+      </c>
+      <c r="H78">
+        <v>0.03548598245503724</v>
+      </c>
+      <c r="I78">
+        <v>0.006983115337734662</v>
+      </c>
+      <c r="J78">
+        <v>0.051684968287384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.06790000581030178</v>
+        <v>-0.1472105960249472</v>
       </c>
       <c r="C80">
-        <v>-0.005908835346148848</v>
+        <v>-0.6747536755999172</v>
       </c>
       <c r="D80">
-        <v>-0.01685140082677782</v>
+        <v>-0.7014727978623563</v>
       </c>
       <c r="E80">
-        <v>-0.00313504584448351</v>
+        <v>-0.0643027414546225</v>
       </c>
       <c r="F80">
-        <v>0.07574059270904961</v>
+        <v>-0.04614426076769178</v>
       </c>
       <c r="G80">
-        <v>-0.8940077518216958</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04215668663138471</v>
+      </c>
+      <c r="H80">
+        <v>-0.05406738940405643</v>
+      </c>
+      <c r="I80">
+        <v>0.00827906450268655</v>
+      </c>
+      <c r="J80">
+        <v>-0.1041941718710506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1648766090323097</v>
+        <v>-0.1827631335599661</v>
       </c>
       <c r="C81">
-        <v>0.01120428453528823</v>
+        <v>0.00650722644309087</v>
       </c>
       <c r="D81">
-        <v>0.0378099487546322</v>
+        <v>0.005976034430356287</v>
       </c>
       <c r="E81">
-        <v>-0.1490133039295351</v>
+        <v>0.08482582247643555</v>
       </c>
       <c r="F81">
-        <v>0.09003834168857298</v>
+        <v>0.1518510216470937</v>
       </c>
       <c r="G81">
-        <v>0.01933291959446695</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02489266023588724</v>
+      </c>
+      <c r="H81">
+        <v>-0.01277021950128406</v>
+      </c>
+      <c r="I81">
+        <v>0.04076741701152689</v>
+      </c>
+      <c r="J81">
+        <v>0.02635987602051606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09168622491190739</v>
+        <v>-0.06842192463752371</v>
       </c>
       <c r="C83">
-        <v>-0.04091361284638539</v>
+        <v>0.04299707041071687</v>
       </c>
       <c r="D83">
-        <v>-0.08889345345952576</v>
+        <v>-0.01665352631557027</v>
       </c>
       <c r="E83">
-        <v>0.03880433636425716</v>
+        <v>-0.04038173589128578</v>
       </c>
       <c r="F83">
-        <v>-0.06552988128038863</v>
+        <v>-0.05466682219705827</v>
       </c>
       <c r="G83">
-        <v>0.001494702793375823</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05966663790366673</v>
+      </c>
+      <c r="H83">
+        <v>0.01204029931015903</v>
+      </c>
+      <c r="I83">
+        <v>-0.008845429524128664</v>
+      </c>
+      <c r="J83">
+        <v>0.0801061581159884</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2373929973070247</v>
+        <v>-0.2559012233018275</v>
       </c>
       <c r="C85">
-        <v>-0.04553103219636541</v>
+        <v>0.04402587060706195</v>
       </c>
       <c r="D85">
-        <v>0.04885065518274866</v>
+        <v>-0.02493301365736667</v>
       </c>
       <c r="E85">
-        <v>-0.1513280101459766</v>
+        <v>0.08639786064380034</v>
       </c>
       <c r="F85">
-        <v>0.04966425471696049</v>
+        <v>0.1684664876473883</v>
       </c>
       <c r="G85">
-        <v>0.002235298264440779</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.00214676125587107</v>
+      </c>
+      <c r="H85">
+        <v>0.01339063031687165</v>
+      </c>
+      <c r="I85">
+        <v>0.02960485241322197</v>
+      </c>
+      <c r="J85">
+        <v>0.1050565987731893</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04551314169875822</v>
+        <v>-0.02712180200351481</v>
       </c>
       <c r="C86">
-        <v>-0.04384635087737571</v>
+        <v>0.04073143131951669</v>
       </c>
       <c r="D86">
-        <v>0.01588893621630526</v>
+        <v>-0.03527905400821214</v>
       </c>
       <c r="E86">
-        <v>0.0640791435309532</v>
+        <v>0.008658707914701571</v>
       </c>
       <c r="F86">
-        <v>0.0009656379849575174</v>
+        <v>-0.06951232856212346</v>
       </c>
       <c r="G86">
-        <v>0.01242331126496307</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.01314483864112259</v>
+      </c>
+      <c r="H86">
+        <v>0.06581941802385768</v>
+      </c>
+      <c r="I86">
+        <v>0.01701792127154842</v>
+      </c>
+      <c r="J86">
+        <v>0.05760214426155751</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.01844909886714657</v>
+        <v>-0.0328569758834477</v>
       </c>
       <c r="C87">
-        <v>0.05422243104276411</v>
+        <v>-0.01288924179402369</v>
       </c>
       <c r="D87">
-        <v>0.01953990104543196</v>
+        <v>0.0179263839346373</v>
       </c>
       <c r="E87">
-        <v>0.08825602738164899</v>
+        <v>0.002875545411793207</v>
       </c>
       <c r="F87">
-        <v>0.01885625948512622</v>
+        <v>-0.1028674562225777</v>
       </c>
       <c r="G87">
-        <v>0.07727077373639898</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02062480030740012</v>
+      </c>
+      <c r="H87">
+        <v>0.02268104852697458</v>
+      </c>
+      <c r="I87">
+        <v>-0.01996603040238158</v>
+      </c>
+      <c r="J87">
+        <v>0.005253298594679449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03860460971806115</v>
+        <v>-0.02814740511252592</v>
       </c>
       <c r="C88">
-        <v>-0.02950958929603196</v>
+        <v>0.007466977251231364</v>
       </c>
       <c r="D88">
-        <v>0.005859583128979599</v>
+        <v>-0.02239487132875319</v>
       </c>
       <c r="E88">
-        <v>-0.007362249206026504</v>
+        <v>0.01634493742603791</v>
       </c>
       <c r="F88">
-        <v>0.01148929084164187</v>
+        <v>0.007338577834395872</v>
       </c>
       <c r="G88">
-        <v>-0.009322834843521702</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03774523445011362</v>
+      </c>
+      <c r="H88">
+        <v>0.03489491929571227</v>
+      </c>
+      <c r="I88">
+        <v>-0.0363201721891003</v>
+      </c>
+      <c r="J88">
+        <v>0.02893454502263919</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02023841431194417</v>
+        <v>-0.05418552314078504</v>
       </c>
       <c r="C89">
-        <v>0.4183215348095751</v>
+        <v>-0.2707656020431644</v>
       </c>
       <c r="D89">
-        <v>-0.0957934055117321</v>
+        <v>0.2920634333523569</v>
       </c>
       <c r="E89">
-        <v>-0.01422109187673114</v>
+        <v>-0.06117542943776031</v>
       </c>
       <c r="F89">
-        <v>-0.0100152143553505</v>
+        <v>-0.02388260754992512</v>
       </c>
       <c r="G89">
-        <v>0.01024959717309123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0528837534467437</v>
+      </c>
+      <c r="H89">
+        <v>0.04114511471416483</v>
+      </c>
+      <c r="I89">
+        <v>0.2732836793378033</v>
+      </c>
+      <c r="J89">
+        <v>0.04193015945951208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.01626099788263195</v>
+        <v>-0.0386126882178828</v>
       </c>
       <c r="C90">
-        <v>0.3116176038839382</v>
+        <v>-0.2414401528771865</v>
       </c>
       <c r="D90">
-        <v>-0.03049362147410117</v>
+        <v>0.2353834392905943</v>
       </c>
       <c r="E90">
-        <v>0.03831768087338036</v>
+        <v>-0.04259131155649192</v>
       </c>
       <c r="F90">
-        <v>-0.01177547767722945</v>
+        <v>-0.03705850494302076</v>
       </c>
       <c r="G90">
-        <v>0.04508328515026987</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02686321022355595</v>
+      </c>
+      <c r="H90">
+        <v>-0.003762609743150636</v>
+      </c>
+      <c r="I90">
+        <v>0.2180015633673004</v>
+      </c>
+      <c r="J90">
+        <v>0.03231086299299682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2993043387982332</v>
+        <v>-0.3131364437928191</v>
       </c>
       <c r="C91">
-        <v>-0.01921204456411718</v>
+        <v>0.03810868450611557</v>
       </c>
       <c r="D91">
-        <v>0.04431920092414812</v>
+        <v>-0.009869089389268461</v>
       </c>
       <c r="E91">
-        <v>-0.301299090080501</v>
+        <v>0.09696162459684356</v>
       </c>
       <c r="F91">
-        <v>0.1327258001008533</v>
+        <v>0.2920268093961814</v>
       </c>
       <c r="G91">
-        <v>-0.09408426036739759</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03672061627486359</v>
+      </c>
+      <c r="H91">
+        <v>-0.02186685472131213</v>
+      </c>
+      <c r="I91">
+        <v>0.0927738938554885</v>
+      </c>
+      <c r="J91">
+        <v>0.1238056773409539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.005874425254251411</v>
+        <v>-0.09065132801954991</v>
       </c>
       <c r="C92">
-        <v>0.429004185218812</v>
+        <v>-0.3312055833027339</v>
       </c>
       <c r="D92">
-        <v>-0.2126675318519185</v>
+        <v>0.292925679786492</v>
       </c>
       <c r="E92">
-        <v>-0.1281283227054569</v>
+        <v>-0.08010166160404532</v>
       </c>
       <c r="F92">
-        <v>0.05104505592776206</v>
+        <v>0.1311219643696738</v>
       </c>
       <c r="G92">
-        <v>-0.1892766997995768</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.1288044398607441</v>
+      </c>
+      <c r="H92">
+        <v>0.4184463876749409</v>
+      </c>
+      <c r="I92">
+        <v>-0.7404939513924155</v>
+      </c>
+      <c r="J92">
+        <v>0.05608688941286367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.02502680478958494</v>
+        <v>-0.0375170242182658</v>
       </c>
       <c r="C93">
-        <v>0.3730089114326471</v>
+        <v>-0.2834039307341782</v>
       </c>
       <c r="D93">
-        <v>-0.07983333068385558</v>
+        <v>0.2965391417319533</v>
       </c>
       <c r="E93">
-        <v>-0.03641305005481323</v>
+        <v>-0.07766835993197557</v>
       </c>
       <c r="F93">
-        <v>0.01017040392326641</v>
+        <v>0.01144633954884351</v>
       </c>
       <c r="G93">
-        <v>-0.05310658893480533</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03534407290145394</v>
+      </c>
+      <c r="H93">
+        <v>-0.02002537179508797</v>
+      </c>
+      <c r="I93">
+        <v>0.1853467913122149</v>
+      </c>
+      <c r="J93">
+        <v>0.01736999207291844</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2911360031320485</v>
+        <v>-0.3163435543408707</v>
       </c>
       <c r="C94">
-        <v>0.04954852072009488</v>
+        <v>0.02050123183277041</v>
       </c>
       <c r="D94">
-        <v>-0.01801472107027876</v>
+        <v>0.04344126932622696</v>
       </c>
       <c r="E94">
-        <v>-0.3923113208868539</v>
+        <v>0.1323550892029485</v>
       </c>
       <c r="F94">
-        <v>0.3815117600407002</v>
+        <v>0.3567255354321068</v>
       </c>
       <c r="G94">
-        <v>0.1328251548048501</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1727342175180493</v>
+      </c>
+      <c r="H94">
+        <v>0.1494812511485268</v>
+      </c>
+      <c r="I94">
+        <v>0.06519245101294867</v>
+      </c>
+      <c r="J94">
+        <v>-0.1850854331819524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1928267839337243</v>
+        <v>-0.1270138130657183</v>
       </c>
       <c r="C95">
-        <v>0.02918488163167881</v>
+        <v>0.101948679240742</v>
       </c>
       <c r="D95">
-        <v>-0.02642391647807186</v>
+        <v>0.03985006116264611</v>
       </c>
       <c r="E95">
-        <v>-0.3467307094889356</v>
+        <v>0.0221595897321054</v>
       </c>
       <c r="F95">
-        <v>-0.8676034809811947</v>
+        <v>0.04548262505851991</v>
       </c>
       <c r="G95">
-        <v>-0.04758816512146451</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8872671992428321</v>
+      </c>
+      <c r="H95">
+        <v>-0.2293661495206998</v>
+      </c>
+      <c r="I95">
+        <v>-0.00181624353047175</v>
+      </c>
+      <c r="J95">
+        <v>-0.2803741447076769</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2157644004368983</v>
+        <v>-0.2000070374559323</v>
       </c>
       <c r="C98">
-        <v>0.1297079841140762</v>
+        <v>-0.01362565364100217</v>
       </c>
       <c r="D98">
-        <v>-0.02730246921635845</v>
+        <v>0.09887675248839055</v>
       </c>
       <c r="E98">
-        <v>0.1028621235202191</v>
+        <v>-0.02993587157115126</v>
       </c>
       <c r="F98">
-        <v>-0.03356797279433795</v>
+        <v>-0.156134520490659</v>
       </c>
       <c r="G98">
-        <v>0.1142371113815943</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1144453339067216</v>
+      </c>
+      <c r="H98">
+        <v>-0.3334771749594235</v>
+      </c>
+      <c r="I98">
+        <v>-0.139756383405208</v>
+      </c>
+      <c r="J98">
+        <v>-0.08824128083616441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02144077484455635</v>
+        <v>-0.01631371061237003</v>
       </c>
       <c r="C101">
-        <v>-0.01574153018047291</v>
+        <v>0.01892322622524718</v>
       </c>
       <c r="D101">
-        <v>0.02459310632459708</v>
+        <v>-0.02336756034135814</v>
       </c>
       <c r="E101">
-        <v>0.02629603445502949</v>
+        <v>0.03097065533303551</v>
       </c>
       <c r="F101">
-        <v>-0.01182912915511124</v>
+        <v>-0.06760225830629994</v>
       </c>
       <c r="G101">
-        <v>0.01765285739805183</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.02180289561658311</v>
+      </c>
+      <c r="H101">
+        <v>0.1112550230896847</v>
+      </c>
+      <c r="I101">
+        <v>-0.007214640931980804</v>
+      </c>
+      <c r="J101">
+        <v>-0.1205162297947066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1177626248654201</v>
+        <v>-0.1218616813647452</v>
       </c>
       <c r="C102">
-        <v>-0.007328718536646633</v>
+        <v>0.01585808578928857</v>
       </c>
       <c r="D102">
-        <v>0.03089391341543387</v>
+        <v>-0.01425980932868541</v>
       </c>
       <c r="E102">
-        <v>-0.0872568304153469</v>
+        <v>0.05268616242777815</v>
       </c>
       <c r="F102">
-        <v>-0.006163100904859106</v>
+        <v>0.09011454607263067</v>
       </c>
       <c r="G102">
-        <v>-0.007659823201021019</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02905310206521528</v>
+      </c>
+      <c r="H102">
+        <v>-0.02538709533497939</v>
+      </c>
+      <c r="I102">
+        <v>0.03846644433135644</v>
+      </c>
+      <c r="J102">
+        <v>0.04700706616184105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01735546704950633</v>
+        <v>-0.03085230516091998</v>
       </c>
       <c r="C103">
-        <v>-0.0005209958561249844</v>
+        <v>0.0003990723929915774</v>
       </c>
       <c r="D103">
-        <v>0.009587806135806884</v>
+        <v>-0.009528723966309187</v>
       </c>
       <c r="E103">
-        <v>-0.02498000089648678</v>
+        <v>0.01998084088121312</v>
       </c>
       <c r="F103">
-        <v>0.006301501705382335</v>
+        <v>0.02011525125842004</v>
       </c>
       <c r="G103">
-        <v>0.0172891720850796</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01888603865817605</v>
+      </c>
+      <c r="H103">
+        <v>0.01218459535495056</v>
+      </c>
+      <c r="I103">
+        <v>0.02191453333751059</v>
+      </c>
+      <c r="J103">
+        <v>0.01838048616610558</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
